--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.77\공유폴더\PROJECT_1\숲\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-014\Documents\GitHub\forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -563,10 +563,6 @@
   </si>
   <si>
     <t>장바구니에 담긴 모든 강의를 결제 처리합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /api/cart/{traveler_name}/checkout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2452,6 +2448,10 @@
   "points": 100
 }
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT /api/cart/{traveler_name}/checkout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2822,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2849,16 +2849,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -2875,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -2898,10 +2898,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -2912,7 +2912,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -2935,10 +2935,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -2958,7 +2958,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2978,19 +2978,19 @@
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3007,7 +3007,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -3040,10 +3040,10 @@
         <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -3060,7 +3060,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -3100,10 +3100,10 @@
         <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>49</v>
@@ -3126,7 +3126,7 @@
         <v>53</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -3143,7 +3143,7 @@
         <v>56</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
@@ -3160,16 +3160,16 @@
         <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="F16" t="s">
         <v>61</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -3187,10 +3187,10 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
@@ -3204,7 +3204,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F18" t="s">
         <v>67</v>
@@ -3244,7 +3244,7 @@
         <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -3280,7 +3280,7 @@
         <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3297,13 +3297,13 @@
         <v>84</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F23" t="s">
+        <v>290</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>86</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3340,10 +3340,10 @@
         <v>89</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3357,10 +3357,10 @@
         <v>91</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
         <v>92</v>
@@ -3380,10 +3380,10 @@
         <v>95</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3400,10 +3400,10 @@
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
         <v>99</v>
@@ -3420,13 +3420,13 @@
         <v>101</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>102</v>
+        <v>375</v>
       </c>
       <c r="F29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -3434,22 +3434,22 @@
     </row>
     <row r="30" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
         <v>103</v>
       </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
       <c r="D30" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="G30" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -3458,71 +3458,71 @@
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>112</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
         <v>114</v>
       </c>
-      <c r="F32" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" t="s">
-        <v>115</v>
-      </c>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
         <v>116</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G33" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G33" t="s">
-        <v>118</v>
-      </c>
       <c r="H33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
         <v>119</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" t="s">
         <v>120</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G34" t="s">
-        <v>121</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -3530,68 +3530,68 @@
     </row>
     <row r="35" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
         <v>122</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" t="s">
+        <v>318</v>
+      </c>
+      <c r="F35" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E35" t="s">
-        <v>319</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>124</v>
       </c>
-      <c r="G35" t="s">
-        <v>125</v>
-      </c>
       <c r="H35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
         <v>126</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G36" t="s">
-        <v>129</v>
-      </c>
       <c r="H36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
         <v>130</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -3599,19 +3599,19 @@
     </row>
     <row r="38" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="G38" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -3619,39 +3619,39 @@
     </row>
     <row r="39" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" t="s">
         <v>310</v>
       </c>
-      <c r="F39" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>311</v>
-      </c>
-      <c r="H39" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" t="s">
         <v>134</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F40" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" t="s">
-        <v>135</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -3659,43 +3659,43 @@
     </row>
     <row r="41" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F41" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" t="s">
+        <v>305</v>
+      </c>
+      <c r="H41" t="s">
         <v>307</v>
-      </c>
-      <c r="C41" t="s">
-        <v>304</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F41" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" t="s">
-        <v>306</v>
-      </c>
-      <c r="H41" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
         <v>139</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>140</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="F43" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" t="s">
         <v>142</v>
-      </c>
-      <c r="F43" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43" t="s">
-        <v>143</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -3703,65 +3703,65 @@
     </row>
     <row r="44" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
         <v>144</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G44" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>148</v>
-      </c>
-      <c r="H44" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G45" t="s">
-        <v>153</v>
-      </c>
       <c r="H45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" t="s">
         <v>154</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>156</v>
-      </c>
-      <c r="G46" t="s">
-        <v>157</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -3769,65 +3769,65 @@
     </row>
     <row r="47" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C47" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" t="s">
         <v>159</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G47" t="s">
-        <v>160</v>
-      </c>
       <c r="H47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="F48" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" t="s">
         <v>162</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G48" t="s">
-        <v>163</v>
-      </c>
       <c r="H48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" t="s">
         <v>164</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>165</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G49" t="s">
         <v>166</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G49" t="s">
-        <v>167</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -3835,63 +3835,63 @@
     </row>
     <row r="50" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
         <v>168</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G50" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G50" t="s">
-        <v>170</v>
-      </c>
       <c r="H50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" t="s">
         <v>171</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="F51" t="s">
         <v>173</v>
       </c>
-      <c r="F51" t="s">
-        <v>174</v>
-      </c>
       <c r="G51" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
         <v>179</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>180</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="F53" t="s">
+        <v>218</v>
+      </c>
+      <c r="G53" t="s">
         <v>182</v>
-      </c>
-      <c r="F53" t="s">
-        <v>219</v>
-      </c>
-      <c r="G53" t="s">
-        <v>183</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -3900,22 +3900,22 @@
     <row r="54" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" t="s">
         <v>184</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G54" t="s">
         <v>186</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G54" t="s">
-        <v>187</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -3924,130 +3924,130 @@
     <row r="55" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
         <v>188</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="F55" t="s">
         <v>190</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>191</v>
       </c>
-      <c r="G55" t="s">
-        <v>192</v>
-      </c>
       <c r="H55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" t="s">
         <v>193</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G56" t="s">
         <v>194</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G56" t="s">
-        <v>195</v>
-      </c>
       <c r="H56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" t="s">
         <v>196</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F57" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" t="s">
         <v>197</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="F57" t="s">
-        <v>220</v>
-      </c>
-      <c r="G57" t="s">
-        <v>198</v>
-      </c>
       <c r="H57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" t="s">
         <v>199</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F58" t="s">
         <v>200</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>201</v>
       </c>
-      <c r="G58" t="s">
-        <v>202</v>
-      </c>
       <c r="H58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" t="s">
         <v>203</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G59" t="s">
         <v>204</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G59" t="s">
-        <v>205</v>
-      </c>
       <c r="H59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" t="s">
         <v>206</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G60" t="s">
         <v>207</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G60" t="s">
-        <v>208</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -4056,22 +4056,22 @@
     <row r="61" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" t="s">
         <v>209</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G61" t="s">
         <v>211</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G61" t="s">
-        <v>212</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -4079,19 +4079,19 @@
     </row>
     <row r="62" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" t="s">
+        <v>216</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C62" t="s">
-        <v>217</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="F62" t="s">
         <v>214</v>
       </c>
-      <c r="F62" t="s">
-        <v>215</v>
-      </c>
       <c r="G62" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -4100,22 +4100,22 @@
     <row r="63" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -4124,45 +4124,45 @@
     <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" t="s">
         <v>222</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>223</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F65" t="s">
+        <v>106</v>
+      </c>
+      <c r="G65" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F65" t="s">
-        <v>107</v>
-      </c>
-      <c r="G65" t="s">
-        <v>225</v>
-      </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E66" t="s">
+        <v>225</v>
+      </c>
+      <c r="F66" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" t="s">
         <v>226</v>
-      </c>
-      <c r="F66" t="s">
-        <v>108</v>
-      </c>
-      <c r="G66" t="s">
-        <v>227</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -4170,126 +4170,126 @@
     </row>
     <row r="67" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" t="s">
         <v>228</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" t="s">
         <v>229</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F67" t="s">
-        <v>109</v>
-      </c>
-      <c r="G67" t="s">
-        <v>230</v>
-      </c>
       <c r="H67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" t="s">
         <v>231</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F68" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" t="s">
         <v>232</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F68" t="s">
-        <v>110</v>
-      </c>
-      <c r="G68" t="s">
-        <v>233</v>
-      </c>
       <c r="H68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" t="s">
         <v>234</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F69" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F69" t="s">
-        <v>236</v>
-      </c>
       <c r="G69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" t="s">
         <v>237</v>
       </c>
-      <c r="B71" t="s">
-        <v>238</v>
-      </c>
       <c r="C71" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G71" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H71" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
+        <v>346</v>
+      </c>
+      <c r="C72" t="s">
         <v>347</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F72" t="s">
+        <v>355</v>
+      </c>
+      <c r="G72" t="s">
+        <v>360</v>
+      </c>
+      <c r="H72" t="s">
         <v>348</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F72" t="s">
-        <v>356</v>
-      </c>
-      <c r="G72" t="s">
-        <v>361</v>
-      </c>
-      <c r="H72" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" t="s">
         <v>239</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E73" t="s">
         <v>240</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E73" t="s">
-        <v>241</v>
-      </c>
       <c r="F73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -4297,22 +4297,22 @@
     </row>
     <row r="74" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" t="s">
         <v>242</v>
       </c>
-      <c r="C74" t="s">
-        <v>345</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E74" t="s">
-        <v>243</v>
-      </c>
       <c r="F74" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G74" t="s">
         <v>358</v>
-      </c>
-      <c r="G74" t="s">
-        <v>359</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>

--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -2822,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4308,7 +4308,7 @@
       <c r="E74" t="s">
         <v>242</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" t="s">
         <v>357</v>
       </c>
       <c r="G74" t="s">
